--- a/modeling/results/results_text_tf-idf.xlsx
+++ b/modeling/results/results_text_tf-idf.xlsx
@@ -49,17 +49,22 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
-              random_state=42)</t>
+    <t>MLPClassifier(batch_size=64, early_stopping=True,
+              hidden_layer_sizes=(64, 64, 64), learning_rate='adaptive',
+              learning_rate_init=0.01, max_iter=512, random_state=42,
+              solver='sgd')</t>
   </si>
   <si>
     <t>GaussianNB(var_smoothing=1e-06)</t>
   </si>
   <si>
-    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(cache_size=64, max_iter=1024, random_state=42)</t>
+    <t>RandomForestClassifier(criterion='entropy', max_depth=64, max_features='sqrt',
+                       max_leaf_nodes=128, n_estimators=1024, n_jobs=8,
+                       random_state=42)</t>
+  </si>
+  <si>
+    <t>SVC(C=1, cache_size=64, coef0=0, decision_function_shape='ovo', degree=1,
+    gamma=0.01, max_iter=1024, random_state=42)</t>
   </si>
   <si>
     <t>Majority</t>
@@ -454,13 +459,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.7818181818181819</v>
+        <v>0.8236842105263158</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6881508909974543</v>
+        <v>0.7406671759612935</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -474,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.7818181818181819</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6906565656565657</v>
+        <v>0.7071112733763336</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -494,13 +499,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7714285714285715</v>
+        <v>0.7973684210526316</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6988551518168242</v>
+        <v>0.7045369631731478</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -514,13 +519,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7948051948051948</v>
+        <v>0.8052631578947368</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7189651189651189</v>
+        <v>0.7242163900984659</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -534,13 +539,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7428571428571429</v>
+        <v>0.7552631578947369</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4262295081967213</v>
+        <v>0.4302848575712144</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_text_tf-idf.xlsx
+++ b/modeling/results/results_text_tf-idf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Std F1</t>
   </si>
   <si>
+    <t>Conf Matrix</t>
+  </si>
+  <si>
     <t>MLP</t>
   </si>
   <si>
@@ -49,25 +52,40 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(batch_size=64, early_stopping=True,
-              hidden_layer_sizes=(64, 64, 64), learning_rate='adaptive',
-              learning_rate_init=0.01, max_iter=512, random_state=42,
-              solver='sgd')</t>
-  </si>
-  <si>
-    <t>GaussianNB(var_smoothing=1e-06)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(criterion='entropy', max_depth=64, max_features='sqrt',
-                       max_leaf_nodes=128, n_estimators=1024, n_jobs=8,
-                       random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(C=1, cache_size=64, coef0=0, decision_function_shape='ovo', degree=1,
-    gamma=0.01, max_iter=1024, random_state=42)</t>
+    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
+              random_state=42)</t>
+  </si>
+  <si>
+    <t>GaussianNB()</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(max_features='log2', n_jobs=8, random_state=42)</t>
+  </si>
+  <si>
+    <t>SVC(C=2, max_iter=1024, random_state=42)</t>
   </si>
   <si>
     <t>Majority</t>
+  </si>
+  <si>
+    <t>[array([[268,  22],
+       [ 56,  39]])]</t>
+  </si>
+  <si>
+    <t>[array([[250,  40],
+       [ 35,  60]])]</t>
+  </si>
+  <si>
+    <t>[array([[255,  35],
+       [ 48,  47]])]</t>
+  </si>
+  <si>
+    <t>[array([[263,  27],
+       [ 49,  46]])]</t>
+  </si>
+  <si>
+    <t>[array([[290,   0],
+       [ 95,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -425,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,105 +468,123 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0.7974025974025974</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.6864820846905537</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0.8051948051948052</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.7424749163879598</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>0.7844155844155845</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.6955535865702499</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0.8025974025974026</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.710686600221484</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>0.8236842105263158</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.7406671759612935</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.8</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.7071112733763336</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0.7973684210526316</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.7045369631731478</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>0.8052631578947368</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.7242163900984659</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7552631578947369</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4302848575712144</v>
+        <v>0.4296296296296296</v>
       </c>
       <c r="F6">
         <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/results/results_text_tf-idf.xlsx
+++ b/modeling/results/results_text_tf-idf.xlsx
@@ -52,40 +52,39 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
-              random_state=42)</t>
-  </si>
-  <si>
-    <t>GaussianNB()</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(max_features='log2', n_jobs=8, random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(C=2, max_iter=1024, random_state=42)</t>
+    <t>{'learning_rate_init': 0.1}</t>
+  </si>
+  <si>
+    <t>{'var_smoothing': 1e-06}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'decision_function_shape': 'ovo'}</t>
   </si>
   <si>
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[268,  22],
-       [ 56,  39]])]</t>
-  </si>
-  <si>
-    <t>[array([[250,  40],
-       [ 35,  60]])]</t>
-  </si>
-  <si>
-    <t>[array([[255,  35],
-       [ 48,  47]])]</t>
-  </si>
-  <si>
-    <t>[array([[263,  27],
-       [ 49,  46]])]</t>
-  </si>
-  <si>
-    <t>[array([[290,   0],
-       [ 95,   0]])]</t>
+    <t>[array([[252,  29],
+       [ 62,  32]])]</t>
+  </si>
+  <si>
+    <t>[array([[126, 155],
+       [ 19,  75]])]</t>
+  </si>
+  <si>
+    <t>[array([[268,  13],
+       [ 60,  34]])]</t>
+  </si>
+  <si>
+    <t>[array([[272,   9],
+       [ 71,  23]])]</t>
+  </si>
+  <si>
+    <t>[array([[281,   0],
+       [ 94,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -480,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.7974025974025974</v>
+        <v>0.7573333333333333</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6864820846905537</v>
+        <v>0.6299810246679317</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -503,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.8051948051948052</v>
+        <v>0.536</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7424749163879598</v>
+        <v>0.5272561293688054</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -526,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.7844155844155845</v>
+        <v>0.8053333333333333</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6955535865702499</v>
+        <v>0.6812004332180415</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -549,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.8025974025974026</v>
+        <v>0.7866666666666666</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.710686600221484</v>
+        <v>0.6184371184371185</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -572,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7532467532467533</v>
+        <v>0.7493333333333333</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4296296296296296</v>
+        <v>0.4283536585365853</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_text_tf-idf.xlsx
+++ b/modeling/results/results_text_tf-idf.xlsx
@@ -52,39 +52,39 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>{'learning_rate_init': 0.1}</t>
+    <t>{'activation': 'relu', 'batch_size': 32, 'hidden_layer_sizes': (32, 32), 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'solver': 'adam'}</t>
   </si>
   <si>
     <t>{'var_smoothing': 1e-06}</t>
   </si>
   <si>
-    <t>{'max_features': 'sqrt'}</t>
-  </si>
-  <si>
-    <t>{'decision_function_shape': 'ovo'}</t>
+    <t>{'criterion': 'gini', 'max_depth': 64, 'max_features': 'log2', 'max_leaf_nodes': 256, 'n_estimators': 1024}</t>
+  </si>
+  <si>
+    <t>{'C': 32, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
   </si>
   <si>
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[252,  29],
-       [ 62,  32]])]</t>
-  </si>
-  <si>
-    <t>[array([[126, 155],
-       [ 19,  75]])]</t>
-  </si>
-  <si>
-    <t>[array([[268,  13],
-       [ 60,  34]])]</t>
-  </si>
-  <si>
-    <t>[array([[272,   9],
-       [ 71,  23]])]</t>
-  </si>
-  <si>
-    <t>[array([[281,   0],
-       [ 94,   0]])]</t>
+    <t>[array([[249,  43],
+       [ 49,  54]])]</t>
+  </si>
+  <si>
+    <t>[array([[242,  50],
+       [ 52,  51]])]</t>
+  </si>
+  <si>
+    <t>[array([[264,  28],
+       [ 54,  49]])]</t>
+  </si>
+  <si>
+    <t>[array([[256,  36],
+       [ 57,  46]])]</t>
+  </si>
+  <si>
+    <t>[array([[292,   0],
+       [103,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -479,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.7573333333333333</v>
+        <v>0.7670886075949367</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6299810246679317</v>
+        <v>0.6920338983050848</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -502,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.536</v>
+        <v>0.7417721518987341</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5272561293688054</v>
+        <v>0.6629692832764504</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -525,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.8053333333333333</v>
+        <v>0.7924050632911392</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6812004332180415</v>
+        <v>0.705009107468124</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.7866666666666666</v>
+        <v>0.7645569620253164</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6184371184371185</v>
+        <v>0.6717891445164172</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7493333333333333</v>
+        <v>0.739240506329114</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4283536585365853</v>
+        <v>0.4250363901018923</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_text_tf-idf.xlsx
+++ b/modeling/results/results_text_tf-idf.xlsx
@@ -52,39 +52,39 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>{'activation': 'relu', 'batch_size': 32, 'hidden_layer_sizes': (32, 32), 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'solver': 'adam'}</t>
+    <t>{'activation': 'tanh', 'batch_size': 32, 'hidden_layer_sizes': (32, 32), 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'solver': 'adam'}</t>
   </si>
   <si>
     <t>{'var_smoothing': 1e-06}</t>
   </si>
   <si>
-    <t>{'criterion': 'gini', 'max_depth': 64, 'max_features': 'log2', 'max_leaf_nodes': 256, 'n_estimators': 1024}</t>
-  </si>
-  <si>
-    <t>{'C': 32, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+    <t>{'criterion': 'entropy', 'max_depth': 64, 'max_features': 'log2', 'max_leaf_nodes': 256, 'n_estimators': 1024}</t>
+  </si>
+  <si>
+    <t>{'C': 16, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
   </si>
   <si>
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[249,  43],
-       [ 49,  54]])]</t>
-  </si>
-  <si>
-    <t>[array([[242,  50],
-       [ 52,  51]])]</t>
-  </si>
-  <si>
-    <t>[array([[264,  28],
-       [ 54,  49]])]</t>
-  </si>
-  <si>
-    <t>[array([[256,  36],
-       [ 57,  46]])]</t>
-  </si>
-  <si>
-    <t>[array([[292,   0],
-       [103,   0]])]</t>
+    <t>[array([[251,  34],
+       [ 61,  37]])]</t>
+  </si>
+  <si>
+    <t>[array([[241,  44],
+       [ 51,  47]])]</t>
+  </si>
+  <si>
+    <t>[array([[263,  22],
+       [ 53,  45]])]</t>
+  </si>
+  <si>
+    <t>[array([[259,  26],
+       [ 56,  42]])]</t>
+  </si>
+  <si>
+    <t>[array([[285,   0],
+       [ 98,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -479,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.7670886075949367</v>
+        <v>0.7519582245430809</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6920338983050848</v>
+        <v>0.6393704221303758</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -502,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.7417721518987341</v>
+        <v>0.7519582245430809</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6629692832764504</v>
+        <v>0.6663548916581845</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -525,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.7924050632911392</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.705009107468124</v>
+        <v>0.7103312660716987</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.7645569620253164</v>
+        <v>0.7859007832898173</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6717891445164172</v>
+        <v>0.6846787148594378</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.739240506329114</v>
+        <v>0.7441253263707572</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4250363901018923</v>
+        <v>0.4266467065868264</v>
       </c>
       <c r="F6">
         <v>0</v>
